--- a/PW/pump_operating_curve.xlsx
+++ b/PW/pump_operating_curve.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WKieee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUTD Term 3\2D\green-fingers-2d\PW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9087" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t xml:space="preserve">time </t>
   </si>
@@ -77,6 +77,24 @@
   <si>
     <t>Flow Rate/(ml/s)</t>
   </si>
+  <si>
+    <t>XSectional Area</t>
+  </si>
+  <si>
+    <t>Flow Velocity/ms^-1</t>
+  </si>
+  <si>
+    <t>rho/ g ml^-1</t>
+  </si>
+  <si>
+    <t>Control Volume Work/W</t>
+  </si>
+  <si>
+    <t>Pump Efficiency</t>
+  </si>
+  <si>
+    <t>Pump Power/W</t>
+  </si>
 </sst>
 </file>
 
@@ -85,7 +103,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -326,54 +351,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,7 +592,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$I$4</c:f>
+              <c:f>Sheet2!$I$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -561,7 +613,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$I$5</c:f>
+              <c:f>Sheet2!$I$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -913,7 +965,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$J$2</c:f>
+              <c:f>Sheet2!$I$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -940,7 +992,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$J$3</c:f>
+              <c:f>Sheet2!$I$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1298,7 +1350,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$20:$N$20</c:f>
+              <c:f>Sheet2!$I$20:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1337,7 +1389,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$21:$N$21</c:f>
+              <c:f>Sheet2!$I$21:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1513,6 +1565,931 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="429928808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Actual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" baseline="0"/>
+              <a:t> Wcv against Pump Voltage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.4528491063109955E-2"/>
+                  <c:y val="-2.587936308654732E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.3414605194138447E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7995860816326988E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1225830570450324E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1683764401900716E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.237451438048162E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2797693681495388E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3830146837779936E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3557636955375934E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9465306621053249E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5716155266096406E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCD6-428D-BD55-A7A14B6A8C29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="559663928"/>
+        <c:axId val="559662616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="559663928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Pump Voltage/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559662616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="559662616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Actual Wcv/W</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559663928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Pump Efficiency against Voltage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.6681993968111692E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3995237381151999E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8524472888531886E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9861274394960701E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.825418218182869E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4977695360851974E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6352058565967186E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1234834850114717E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4669761565342713E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7771435172313606E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A71-43CF-895F-8A896A69D717}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="443443160"/>
+        <c:axId val="443441192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="443443160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443441192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="443441192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443443160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1707,7 +2684,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$18:$J$18</c:f>
+              <c:f>Sheet2!$I$18:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1734,7 +2711,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$19:$J$19</c:f>
+              <c:f>Sheet2!$I$19:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2092,7 +3069,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$16:$J$16</c:f>
+              <c:f>Sheet2!$I$16:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2119,7 +3096,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$17:$J$17</c:f>
+              <c:f>Sheet2!$I$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2477,7 +3454,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$14:$J$14</c:f>
+              <c:f>Sheet2!$I$14:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2504,7 +3481,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$15:$J$15</c:f>
+              <c:f>Sheet2!$I$15:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3466,7 +4443,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$12:$J$12</c:f>
+              <c:f>Sheet2!$I$12:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3493,7 +4470,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$13:$J$13</c:f>
+              <c:f>Sheet2!$I$13:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3851,7 +4828,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$10:$J$10</c:f>
+              <c:f>Sheet2!$I$10:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3878,7 +4855,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$11:$J$11</c:f>
+              <c:f>Sheet2!$I$11:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4236,7 +5213,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$8:$J$8</c:f>
+              <c:f>Sheet2!$I$8:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4263,7 +5240,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$9:$J$9</c:f>
+              <c:f>Sheet2!$I$9:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4621,7 +5598,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$6:$J$6</c:f>
+              <c:f>Sheet2!$I$6:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4648,7 +5625,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$7:$J$7</c:f>
+              <c:f>Sheet2!$I$7:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4941,6 +5918,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6848,7 +7905,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7364,7 +8421,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7880,7 +8937,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8396,7 +9453,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8912,7 +9969,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9428,7 +10485,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9944,7 +11001,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10460,7 +11517,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10976,17 +12033,1049 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -11016,13 +13105,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
@@ -11052,13 +13141,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -11088,13 +13177,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -11125,15 +13214,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>986367</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>110913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320041</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11160,13 +13249,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
@@ -11196,13 +13285,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -11232,13 +13321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
@@ -11268,13 +13357,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -11304,13 +13393,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -11340,13 +13429,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -11369,6 +13458,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139122</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>115262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>53879</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F823D6-86C0-4AAB-8941-8458F3A878AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>862622</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>437985</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>11560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4871B24-03E8-4AD1-BBD5-8A19FDACFD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11680,9 +13841,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -11702,7 +13863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11722,7 +13883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B3">
         <v>200</v>
       </c>
@@ -11737,7 +13898,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B4">
         <v>300</v>
       </c>
@@ -11745,7 +13906,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B5">
         <v>400</v>
       </c>
@@ -11753,7 +13914,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -11767,7 +13928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B8">
         <v>200</v>
       </c>
@@ -11775,7 +13936,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B9">
         <v>300</v>
       </c>
@@ -11783,7 +13944,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>400</v>
       </c>
@@ -11791,7 +13952,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -11805,7 +13966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B13">
         <v>200</v>
       </c>
@@ -11813,7 +13974,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B14">
         <v>300</v>
       </c>
@@ -11821,7 +13982,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B15">
         <v>400</v>
       </c>
@@ -11829,7 +13990,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11843,7 +14004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B18">
         <v>200</v>
       </c>
@@ -11851,7 +14012,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B19">
         <v>300</v>
       </c>
@@ -11859,7 +14020,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B20">
         <v>400</v>
       </c>
@@ -11874,706 +14035,967 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O21"/>
+  <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.87890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.87890625" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="20.41015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="10.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="15">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B2" s="16">
         <v>2</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="18">
         <v>0.1389</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="24">
+        <f>C2*0.000001/$C$23</f>
+        <v>4.4213243190928522E-2</v>
+      </c>
+      <c r="E2" s="24">
+        <f>0.2403*B2 - 0.1149</f>
+        <v>0.36570000000000003</v>
+      </c>
+      <c r="F2" s="24">
+        <f>$C$24*C2*0.001*D2^2*0.5</f>
+        <v>1.3414605194138447E-7</v>
+      </c>
+      <c r="G2" s="26">
+        <f>F2/E2</f>
+        <v>3.6681993968111692E-7</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2">
+      <c r="I2" s="2">
         <v>42.96</v>
       </c>
-      <c r="F2" s="2">
+      <c r="J2" s="2">
         <v>74.92</v>
       </c>
-      <c r="G2" s="2">
+      <c r="K2" s="2">
         <f>60*1+51.76</f>
         <v>111.75999999999999</v>
       </c>
-      <c r="H2" s="2">
+      <c r="L2" s="2">
         <f>60*2+25.26</f>
         <v>145.26</v>
       </c>
-      <c r="I2" s="2">
+      <c r="M2" s="2">
         <f>3*60+2.23</f>
         <v>182.23</v>
       </c>
-      <c r="J2" s="3">
+      <c r="N2" s="3">
         <f>3*60+43.42</f>
         <v>223.42000000000002</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6">
+      <c r="I3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="6">
+      <c r="J3" s="4">
         <v>10</v>
       </c>
-      <c r="G3" s="6">
+      <c r="K3" s="4">
         <v>15</v>
       </c>
-      <c r="H3" s="6">
+      <c r="L3" s="4">
         <v>20</v>
       </c>
-      <c r="I3" s="6">
+      <c r="M3" s="4">
         <v>25</v>
       </c>
-      <c r="J3" s="6">
+      <c r="N3" s="4">
         <v>30</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="15">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B4" s="16">
         <v>2.5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
         <v>0.23860000000000001</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="24">
+        <f t="shared" ref="D4" si="0">C4*0.000001/$C$23</f>
+        <v>7.5948738843452462E-2</v>
+      </c>
+      <c r="E4" s="24">
+        <f t="shared" ref="E4:E21" si="1">0.2403*B4 - 0.1149</f>
+        <v>0.48585</v>
+      </c>
+      <c r="F4" s="24">
+        <f t="shared" ref="F4" si="2">$C$24*C4*0.001*D4^2*0.5</f>
+        <v>6.7995860816326988E-7</v>
+      </c>
+      <c r="G4" s="26">
+        <f t="shared" ref="G4" si="3">F4/E4</f>
+        <v>1.3995237381151999E-6</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2">
+      <c r="I4" s="2">
         <v>400</v>
       </c>
-      <c r="F4" s="2">
+      <c r="J4" s="2">
         <v>830</v>
       </c>
-      <c r="G4" s="2">
+      <c r="K4" s="2">
         <v>1240</v>
       </c>
-      <c r="H4" s="2">
-        <f>F4+13*60 + 50</f>
+      <c r="L4" s="2">
+        <f>J4+13*60 + 50</f>
         <v>1660</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+    <row r="5" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6">
+      <c r="I5" s="4">
         <v>100</v>
       </c>
-      <c r="F5" s="6">
+      <c r="J5" s="4">
         <v>200</v>
       </c>
-      <c r="G5" s="6">
+      <c r="K5" s="4">
         <v>300</v>
       </c>
-      <c r="H5" s="6">
+      <c r="L5" s="4">
         <v>400</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="18">
         <v>0.28199999999999997</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="24">
+        <f t="shared" ref="D6" si="4">C6*0.000001/$C$23</f>
+        <v>8.976338790382897E-2</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" ref="E6:E21" si="5">0.2403*B6 - 0.1149</f>
+        <v>0.60600000000000009</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" ref="F6" si="6">$C$24*C6*0.001*D6^2*0.5</f>
+        <v>1.1225830570450324E-6</v>
+      </c>
+      <c r="G6" s="26">
+        <f t="shared" ref="G6" si="7">F6/E6</f>
+        <v>1.8524472888531886E-6</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
+      <c r="I6" s="2">
         <v>19.63</v>
       </c>
-      <c r="F6" s="2">
+      <c r="J6" s="2">
         <v>37.29</v>
       </c>
-      <c r="G6" s="2">
+      <c r="K6" s="2">
         <v>55.09</v>
       </c>
-      <c r="H6" s="2">
+      <c r="L6" s="2">
         <v>71.650000000000006</v>
       </c>
-      <c r="I6" s="2">
+      <c r="M6" s="2">
         <v>89.46</v>
       </c>
-      <c r="J6" s="3">
+      <c r="N6" s="3">
         <v>109.07</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+    <row r="7" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6">
+      <c r="I7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="J7" s="4">
         <v>10</v>
       </c>
-      <c r="G7" s="6">
+      <c r="K7" s="4">
         <v>15</v>
       </c>
-      <c r="H7" s="6">
+      <c r="L7" s="4">
         <v>20</v>
       </c>
-      <c r="I7" s="6">
+      <c r="M7" s="4">
         <v>25</v>
       </c>
-      <c r="J7" s="6">
+      <c r="N7" s="4">
         <v>30</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="11">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B8" s="20">
         <v>3.5</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="22">
         <v>0.35120000000000001</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="24">
+        <f t="shared" ref="D8" si="8">C8*0.000001/$C$23</f>
+        <v>0.1117904320277473</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" ref="E8:E21" si="9">0.2403*B8 - 0.1149</f>
+        <v>0.72615000000000007</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" ref="F8" si="10">$C$24*C8*0.001*D8^2*0.5</f>
+        <v>2.1683764401900716E-6</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" ref="G8" si="11">F8/E8</f>
+        <v>2.9861274394960701E-6</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13">
+      <c r="I8" s="9">
         <v>19.39</v>
       </c>
-      <c r="F8" s="13">
+      <c r="J8" s="9">
         <v>31.31</v>
       </c>
-      <c r="G8" s="13">
+      <c r="K8" s="9">
         <v>44.92</v>
       </c>
-      <c r="H8" s="13">
+      <c r="L8" s="9">
         <v>61.03</v>
       </c>
-      <c r="I8" s="13">
+      <c r="M8" s="9">
         <v>73.97</v>
       </c>
-      <c r="J8" s="14">
+      <c r="N8" s="10">
         <v>90.04</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19" t="s">
+    <row r="9" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="19">
+      <c r="I9" s="11">
         <v>5</v>
       </c>
-      <c r="F9" s="19">
+      <c r="J9" s="11">
         <v>10</v>
       </c>
-      <c r="G9" s="19">
+      <c r="K9" s="11">
         <v>15</v>
       </c>
-      <c r="H9" s="19">
+      <c r="L9" s="11">
         <v>20</v>
       </c>
-      <c r="I9" s="19">
+      <c r="M9" s="11">
         <v>25</v>
       </c>
-      <c r="J9" s="19">
+      <c r="N9" s="11">
         <v>30</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="15">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="18">
         <v>0.40139999999999998</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="24">
+        <f t="shared" ref="D10" si="12">C10*0.000001/$C$23</f>
+        <v>0.12776958831417359</v>
+      </c>
+      <c r="E10" s="24">
+        <f t="shared" ref="E10:E21" si="13">0.2403*B10 - 0.1149</f>
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="F10" s="24">
+        <f t="shared" ref="F10" si="14">$C$24*C10*0.001*D10^2*0.5</f>
+        <v>3.237451438048162E-6</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" ref="G10" si="15">F10/E10</f>
+        <v>3.825418218182869E-6</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2">
+      <c r="I10" s="2">
         <v>10.44</v>
       </c>
-      <c r="F10" s="2">
+      <c r="J10" s="2">
         <v>25.48</v>
       </c>
-      <c r="G10" s="2">
+      <c r="K10" s="2">
         <v>38.78</v>
       </c>
-      <c r="H10" s="2">
+      <c r="L10" s="2">
         <v>50.08</v>
       </c>
-      <c r="I10" s="2">
+      <c r="M10" s="2">
         <v>60.81</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>73.91</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+    <row r="11" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="6">
+      <c r="I11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="J11" s="4">
         <v>10</v>
       </c>
-      <c r="G11" s="6">
+      <c r="K11" s="4">
         <v>15</v>
       </c>
-      <c r="H11" s="6">
+      <c r="L11" s="4">
         <v>20</v>
       </c>
-      <c r="I11" s="6">
+      <c r="M11" s="4">
         <v>25</v>
       </c>
-      <c r="J11" s="6">
+      <c r="N11" s="4">
         <v>30</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B12" s="20">
         <v>4.5</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="22">
         <v>0.50060000000000004</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="24">
+        <f t="shared" ref="D12" si="16">C12*0.000001/$C$23</f>
+        <v>0.15934592902360564</v>
+      </c>
+      <c r="E12" s="24">
+        <f t="shared" ref="E12:E21" si="17">0.2403*B12 - 0.1149</f>
+        <v>0.96645000000000003</v>
+      </c>
+      <c r="F12" s="24">
+        <f t="shared" ref="F12" si="18">$C$24*C12*0.001*D12^2*0.5</f>
+        <v>6.2797693681495388E-6</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" ref="G12" si="19">F12/E12</f>
+        <v>6.4977695360851974E-6</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="13">
+      <c r="I12" s="9">
         <v>10.09</v>
       </c>
-      <c r="F12" s="13">
+      <c r="J12" s="9">
         <v>21.58</v>
       </c>
-      <c r="G12" s="13">
+      <c r="K12" s="9">
         <v>31.06</v>
       </c>
-      <c r="H12" s="13">
+      <c r="L12" s="9">
         <v>41.11</v>
       </c>
-      <c r="I12" s="13">
+      <c r="M12" s="9">
         <v>50.49</v>
       </c>
-      <c r="J12" s="14">
+      <c r="N12" s="10">
         <v>60.59</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19" t="s">
+    <row r="13" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="21"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="19">
+      <c r="I13" s="11">
         <v>5</v>
       </c>
-      <c r="F13" s="19">
+      <c r="J13" s="11">
         <v>10</v>
       </c>
-      <c r="G13" s="19">
+      <c r="K13" s="11">
         <v>15</v>
       </c>
-      <c r="H13" s="19">
+      <c r="L13" s="11">
         <v>20</v>
       </c>
-      <c r="I13" s="19">
+      <c r="M13" s="11">
         <v>25</v>
       </c>
-      <c r="J13" s="19">
+      <c r="N13" s="11">
         <v>30</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="15">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="18">
         <v>0.57230000000000003</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="24">
+        <f t="shared" ref="D14" si="20">C14*0.000001/$C$23</f>
+        <v>0.18216874786298343</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" ref="E14:E21" si="21">0.2403*B14 - 0.1149</f>
+        <v>1.0866</v>
+      </c>
+      <c r="F14" s="24">
+        <f t="shared" ref="F14" si="22">$C$24*C14*0.001*D14^2*0.5</f>
+        <v>9.3830146837779936E-6</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" ref="G14" si="23">F14/E14</f>
+        <v>8.6352058565967186E-6</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2">
+      <c r="I14" s="2">
         <v>10.81</v>
       </c>
-      <c r="F14" s="2">
+      <c r="J14" s="2">
         <v>20.46</v>
       </c>
-      <c r="G14" s="2">
+      <c r="K14" s="2">
         <v>28.5</v>
       </c>
-      <c r="H14" s="2">
+      <c r="L14" s="2">
         <v>36.93</v>
       </c>
-      <c r="I14" s="2">
+      <c r="M14" s="2">
         <v>45.94</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <v>54.96</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+    <row r="15" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="6">
+      <c r="I15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="6">
+      <c r="J15" s="4">
         <v>10</v>
       </c>
-      <c r="G15" s="6">
+      <c r="K15" s="4">
         <v>15</v>
       </c>
-      <c r="H15" s="6">
+      <c r="L15" s="4">
         <v>20</v>
       </c>
-      <c r="I15" s="6">
+      <c r="M15" s="4">
         <v>25</v>
       </c>
-      <c r="J15" s="6">
+      <c r="N15" s="4">
         <v>30</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B16" s="20">
         <v>5.5</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="22">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="24">
+        <f t="shared" ref="D16" si="24">C16*0.000001/$C$23</f>
+        <v>0.20594649636091258</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" ref="E16:E21" si="25">0.2403*B16 - 0.1149</f>
+        <v>1.20675</v>
+      </c>
+      <c r="F16" s="24">
+        <f t="shared" ref="F16" si="26">$C$24*C16*0.001*D16^2*0.5</f>
+        <v>1.3557636955375934E-5</v>
+      </c>
+      <c r="G16" s="26">
+        <f t="shared" ref="G16" si="27">F16/E16</f>
+        <v>1.1234834850114717E-5</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="13">
+      <c r="I16" s="9">
         <v>6.89</v>
       </c>
-      <c r="F16" s="13">
+      <c r="J16" s="9">
         <v>13.56</v>
       </c>
-      <c r="G16" s="13">
+      <c r="K16" s="9">
         <v>21.29</v>
       </c>
-      <c r="H16" s="13">
+      <c r="L16" s="9">
         <v>29.38</v>
       </c>
-      <c r="I16" s="13">
+      <c r="M16" s="9">
         <v>37.25</v>
       </c>
-      <c r="J16" s="14">
+      <c r="N16" s="10">
         <v>45.11</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19" t="s">
+    <row r="17" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="21"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="19">
+      <c r="I17" s="11">
         <v>5</v>
       </c>
-      <c r="F17" s="19">
+      <c r="J17" s="11">
         <v>10</v>
       </c>
-      <c r="G17" s="19">
+      <c r="K17" s="11">
         <v>15</v>
       </c>
-      <c r="H17" s="19">
+      <c r="L17" s="11">
         <v>20</v>
       </c>
-      <c r="I17" s="19">
+      <c r="M17" s="11">
         <v>25</v>
       </c>
-      <c r="J17" s="20">
+      <c r="N17" s="12">
         <v>30</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B18" s="16">
         <v>6</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="18">
         <v>0.72989999999999999</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="24">
+        <f t="shared" ref="D18" si="28">C18*0.000001/$C$23</f>
+        <v>0.23233438592554884</v>
+      </c>
+      <c r="E18" s="24">
+        <f t="shared" ref="E18:E21" si="29">0.2403*B18 - 0.1149</f>
+        <v>1.3269000000000002</v>
+      </c>
+      <c r="F18" s="24">
+        <f t="shared" ref="F18" si="30">$C$24*C18*0.001*D18^2*0.5</f>
+        <v>1.9465306621053249E-5</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" ref="G18" si="31">F18/E18</f>
+        <v>1.4669761565342713E-5</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2">
+      <c r="I18" s="2">
         <v>5.46</v>
       </c>
-      <c r="F18" s="2">
+      <c r="J18" s="2">
         <v>9.7899999999999991</v>
       </c>
-      <c r="G18" s="2">
+      <c r="K18" s="2">
         <v>15.97</v>
       </c>
-      <c r="H18" s="2">
+      <c r="L18" s="2">
         <v>23.97</v>
       </c>
-      <c r="I18" s="2">
+      <c r="M18" s="2">
         <v>32.04</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>38.07</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
+    <row r="19" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="6">
+      <c r="I19" s="4">
         <v>5</v>
       </c>
-      <c r="F19" s="6">
+      <c r="J19" s="4">
         <v>10</v>
       </c>
-      <c r="G19" s="6">
+      <c r="K19" s="4">
         <v>15</v>
       </c>
-      <c r="H19" s="6">
+      <c r="L19" s="4">
         <v>20</v>
       </c>
-      <c r="I19" s="6">
+      <c r="M19" s="4">
         <v>25</v>
       </c>
-      <c r="J19" s="7">
+      <c r="N19" s="5">
         <v>30</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="15">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B20" s="16">
         <v>6.5</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="18">
         <v>0.80089999999999995</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="24">
+        <f t="shared" ref="D20" si="32">C20*0.000001/$C$23</f>
+        <v>0.25493438784459793</v>
+      </c>
+      <c r="E20" s="24">
+        <f t="shared" ref="E20:E21" si="33">0.2403*B20 - 0.1149</f>
+        <v>1.4470500000000002</v>
+      </c>
+      <c r="F20" s="24">
+        <f t="shared" ref="F20" si="34">$C$24*C20*0.001*D20^2*0.5</f>
+        <v>2.5716155266096406E-5</v>
+      </c>
+      <c r="G20" s="26">
+        <f t="shared" ref="G20" si="35">F20/E20</f>
+        <v>1.7771435172313606E-5</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="2">
+      <c r="I20" s="2">
         <v>7.95</v>
       </c>
-      <c r="F20" s="2">
+      <c r="J20" s="2">
         <v>13.92</v>
       </c>
-      <c r="G20" s="2">
+      <c r="K20" s="2">
         <v>19.440000000000001</v>
       </c>
-      <c r="H20" s="2">
+      <c r="L20" s="2">
         <v>25.51</v>
       </c>
-      <c r="I20" s="2">
+      <c r="M20" s="2">
         <v>31.98</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>38.630000000000003</v>
       </c>
-      <c r="K20" s="22">
+      <c r="O20" s="14">
         <v>45.17</v>
       </c>
-      <c r="L20" s="23">
+      <c r="P20" s="15">
         <v>51.32</v>
       </c>
-      <c r="M20" s="23">
+      <c r="Q20" s="15">
         <v>57.45</v>
       </c>
-      <c r="N20" s="23">
+      <c r="R20" s="15">
         <v>63.5</v>
       </c>
-      <c r="O20" s="21"/>
+      <c r="S20" s="13"/>
     </row>
-    <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+    <row r="21" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="17"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="6">
+      <c r="I21" s="4">
         <v>5</v>
       </c>
-      <c r="F21" s="6">
+      <c r="J21" s="4">
         <v>10</v>
       </c>
-      <c r="G21" s="6">
+      <c r="K21" s="4">
         <v>15</v>
       </c>
-      <c r="H21" s="6">
+      <c r="L21" s="4">
         <v>20</v>
       </c>
-      <c r="I21" s="6">
+      <c r="M21" s="4">
         <v>25</v>
       </c>
-      <c r="J21" s="7">
+      <c r="N21" s="5">
         <v>30</v>
       </c>
-      <c r="K21" s="6">
+      <c r="O21" s="4">
         <v>35</v>
       </c>
-      <c r="L21" s="7">
+      <c r="P21" s="5">
         <v>40</v>
       </c>
-      <c r="M21" s="6">
+      <c r="Q21" s="4">
         <v>45</v>
       </c>
-      <c r="N21" s="7">
+      <c r="R21" s="5">
         <v>50</v>
       </c>
-      <c r="O21" s="21"/>
+      <c r="S21" s="13"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <f>0.002^2*PI()/4</f>
+        <v>3.1415926535897929E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>0.98809999999999998</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
+  <mergeCells count="60">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B4:B5"/>
@@ -12582,6 +15004,18 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
